--- a/biology/Mycologie/Amaninamide/Amaninamide.xlsx
+++ b/biology/Mycologie/Amaninamide/Amaninamide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'amaninamide est un peptide cyclique constitué de huit résidus d'acides aminés. Il fait partie des amatoxines, un groupe de toxines isolées dans un certain nombre de champignons des genres Amanita, Lepiota et Galerina, tels que l'amanite phalloïde ou encore l'amanite vireuse.
@@ -512,9 +524,11 @@
           <t>Toxicologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres amatoxines, l'amaninamide est un inhibiteur de l'ARN polymérase II. Après ingestion, il se lie à l'ARN polymérase, ce qui empêche la synthèse de l'ARN messager, provoquant la cytolyse des hépatocytes (cellules du foie) et des cellules du rein[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres amatoxines, l'amaninamide est un inhibiteur de l'ARN polymérase II. Après ingestion, il se lie à l'ARN polymérase, ce qui empêche la synthèse de l'ARN messager, provoquant la cytolyse des hépatocytes (cellules du foie) et des cellules du rein.
 </t>
         </is>
       </c>
